--- a/biology/Zoologie/Eolates/Eolates.xlsx
+++ b/biology/Zoologie/Eolates/Eolates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eolates gracilis
-Eolates est un genre éteint de poissons marins à nageoires rayonnées appartenant à la famille des Latidae, au sein de l'ordre des Perciformes[3],[4].
-Une seule espèce est rattachée au genre : Eolates gracilis, décrite par le paléontologue suisse Louis Agassiz en 1833[2].
+Eolates est un genre éteint de poissons marins à nageoires rayonnées appartenant à la famille des Latidae, au sein de l'ordre des Perciformes,.
+Une seule espèce est rattachée au genre : Eolates gracilis, décrite par le paléontologue suisse Louis Agassiz en 1833.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Découverte et datation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fossiles d'Eolates, bien préservés, ne sont connus que sur le célèbre site paléontologique (Lagerstätte) du Monte Bolca sur la zone dite de « Pesciara », en Vénétie (Italie). Eolates gracilis a vécu dans les mers tropicales de l'océan Téthys, précurseur de la Méditerranée, au cours de l'Éocène inférieur (Yprésien), il y a environ entre 49 et 48,5 Ma (millions d'années)[5],[6]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fossiles d'Eolates, bien préservés, ne sont connus que sur le célèbre site paléontologique (Lagerstätte) du Monte Bolca sur la zone dite de « Pesciara », en Vénétie (Italie). Eolates gracilis a vécu dans les mers tropicales de l'océan Téthys, précurseur de la Méditerranée, au cours de l'Éocène inférieur (Yprésien), il y a environ entre 49 et 48,5 Ma (millions d'années),. 
 L'environnement péri-récifal tropical de l'Éocène du Monte Bolca est sous influence à la fois côtière et de mer ouverte. Dans cet environnement, les fossiles ont été préservés dans des sédiments calcaires laminés, déposés dans une dépression à faible énergie, sous un environnement anoxique.
 </t>
         </is>
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -571,9 +587,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eolates est un Percoidei généralement placé dans la famille des Latidae[3],[4], une famille qui comprend, entre autres, l'actuelle perche du Nil (Lates niloticus).  Il est aussi rapproché d'un genre éteint de Perciformes du Monte Bolca : Cyclopoma.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eolates est un Percoidei généralement placé dans la famille des Latidae une famille qui comprend, entre autres, l'actuelle perche du Nil (Lates niloticus).  Il est aussi rapproché d'un genre éteint de Perciformes du Monte Bolca : Cyclopoma.
 </t>
         </is>
       </c>
